--- a/raw_data/20200818_saline/20200818_Sensor1_Test_33.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_33.xlsx
@@ -1,915 +1,1331 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E83D1-1485-4E39-B615-5B0856054F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>28986.633823</v>
       </c>
       <c r="B2" s="1">
-        <v>8.051843</v>
+        <v>8.0518429999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>901.403000</v>
+        <v>901.40300000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.453000</v>
+        <v>-202.453</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>28996.730180</v>
+        <v>28996.730179999999</v>
       </c>
       <c r="G2" s="1">
-        <v>8.054647</v>
+        <v>8.0546469999999992</v>
       </c>
       <c r="H2" s="1">
-        <v>919.542000</v>
+        <v>919.54200000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.907000</v>
+        <v>-170.90700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>29007.398448</v>
       </c>
       <c r="L2" s="1">
-        <v>8.057611</v>
+        <v>8.0576109999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>942.602000</v>
+        <v>942.60199999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.976000</v>
+        <v>-120.976</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>29018.233727</v>
+        <v>29018.233726999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.060620</v>
+        <v>8.0606200000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>949.448000</v>
+        <v>949.44799999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.344000</v>
+        <v>-104.34399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>29028.565394</v>
+        <v>29028.565394000001</v>
       </c>
       <c r="V2" s="1">
-        <v>8.063490</v>
+        <v>8.0634899999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>955.919000</v>
+        <v>955.91899999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.923500</v>
+        <v>-88.923500000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>29038.712306</v>
+        <v>29038.712306000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.066309</v>
+        <v>8.0663090000000004</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.814000</v>
+        <v>962.81399999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.894200</v>
+        <v>-76.894199999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>29048.921176</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.069145</v>
+        <v>8.0691450000000007</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.357000</v>
+        <v>967.35699999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.587300</v>
+        <v>-74.587299999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>29059.030634</v>
+        <v>29059.030633999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.071953</v>
+        <v>8.0719530000000006</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.531000</v>
+        <v>974.53099999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.118900</v>
+        <v>-79.118899999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>29069.277981</v>
+        <v>29069.277980999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.074799</v>
+        <v>8.0747990000000005</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.481000</v>
+        <v>982.48099999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.486300</v>
+        <v>-90.4863</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>29080.238078</v>
+        <v>29080.238077999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.077844</v>
+        <v>8.0778440000000007</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.196000</v>
+        <v>992.19600000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-107.983000</v>
+        <v>-107.983</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>29091.446177</v>
+        <v>29091.446177000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.080957</v>
+        <v>8.0809569999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.451000</v>
+        <v>-123.45099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>29102.393377</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.083998</v>
+        <v>8.0839979999999994</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.814000</v>
+        <v>-194.81399999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>29113.811778</v>
+        <v>29113.811777999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.087170</v>
+        <v>8.0871700000000004</v>
       </c>
       <c r="BK2" s="1">
-        <v>1104.330000</v>
+        <v>1104.33</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.815000</v>
+        <v>-310.815</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>29124.148933</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.090041</v>
+        <v>8.0900409999999994</v>
       </c>
       <c r="BP2" s="1">
-        <v>1211.480000</v>
+        <v>1211.48</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-493.914000</v>
+        <v>-493.91399999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>29134.891253</v>
+        <v>29134.891253000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.093025</v>
+        <v>8.0930250000000008</v>
       </c>
       <c r="BU2" s="1">
-        <v>1332.140000</v>
+        <v>1332.14</v>
       </c>
       <c r="BV2" s="1">
-        <v>-694.735000</v>
+        <v>-694.73500000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>29146.296295</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.096193</v>
+        <v>8.0961929999999995</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1467.300000</v>
+        <v>1467.3</v>
       </c>
       <c r="CA2" s="1">
-        <v>-909.233000</v>
+        <v>-909.23299999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>29157.708744</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.099364</v>
+        <v>8.0993639999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>1822.080000</v>
+        <v>1822.08</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1417.960000</v>
+        <v>-1417.96</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>28987.023434</v>
+        <v>28987.023433999999</v>
       </c>
       <c r="B3" s="1">
-        <v>8.051951</v>
+        <v>8.0519510000000007</v>
       </c>
       <c r="C3" s="1">
-        <v>901.463000</v>
+        <v>901.46299999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.422000</v>
+        <v>-202.422</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>28997.393291</v>
       </c>
       <c r="G3" s="1">
-        <v>8.054831</v>
+        <v>8.0548310000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.256000</v>
+        <v>919.25599999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.025000</v>
+        <v>-171.02500000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>29008.140605</v>
+        <v>29008.140605000001</v>
       </c>
       <c r="L3" s="1">
         <v>8.057817</v>
       </c>
       <c r="M3" s="1">
-        <v>942.765000</v>
+        <v>942.76499999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.941000</v>
+        <v>-120.941</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>29018.649343</v>
+        <v>29018.649343000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.060736</v>
+        <v>8.0607360000000003</v>
       </c>
       <c r="R3" s="1">
-        <v>949.424000</v>
+        <v>949.42399999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.376000</v>
+        <v>-104.376</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>29028.910082</v>
+        <v>29028.910081999999</v>
       </c>
       <c r="V3" s="1">
-        <v>8.063586</v>
+        <v>8.0635860000000008</v>
       </c>
       <c r="W3" s="1">
-        <v>955.880000</v>
+        <v>955.88</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.952600</v>
+        <v>-88.952600000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>29039.064180</v>
+        <v>29039.064180000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.066407</v>
+        <v>8.0664069999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.931000</v>
+        <v>962.93100000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.016400</v>
+        <v>-77.016400000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>29049.302630</v>
+        <v>29049.302629999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.069251</v>
+        <v>8.0692509999999995</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.403000</v>
+        <v>967.40300000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.612300</v>
+        <v>-74.612300000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>29059.443306</v>
+        <v>29059.443306000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.072068</v>
+        <v>8.0720679999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.534000</v>
+        <v>974.53399999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.102000</v>
+        <v>-79.102000000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>29069.703548</v>
+        <v>29069.703548000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.074918</v>
+        <v>8.0749180000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.488000</v>
+        <v>982.48800000000006</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.471600</v>
+        <v>-90.471599999999995</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>29080.687976</v>
+        <v>29080.687976000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.077969</v>
+        <v>8.0779689999999995</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.224000</v>
+        <v>992.22400000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-107.969000</v>
+        <v>-107.96899999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>29091.826142</v>
+        <v>29091.826142000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.081063</v>
+        <v>8.0810630000000003</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.360000</v>
+        <v>1000.36</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.458000</v>
+        <v>-123.458</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>29102.756713</v>
+        <v>29102.756712999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.084099</v>
+        <v>8.0840990000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.827000</v>
+        <v>-194.827</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>29114.188251</v>
@@ -918,981 +1334,981 @@
         <v>8.087275</v>
       </c>
       <c r="BK3" s="1">
-        <v>1104.320000</v>
+        <v>1104.32</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.839000</v>
+        <v>-310.839</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>29124.569509</v>
+        <v>29124.569509000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.090158</v>
+        <v>8.0901580000000006</v>
       </c>
       <c r="BP3" s="1">
-        <v>1211.450000</v>
+        <v>1211.45</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-493.965000</v>
+        <v>-493.96499999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>29135.319338</v>
+        <v>29135.319338000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.093144</v>
+        <v>8.0931440000000006</v>
       </c>
       <c r="BU3" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="BV3" s="1">
-        <v>-694.671000</v>
+        <v>-694.67100000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>29146.737206</v>
+        <v>29146.737206000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.096316</v>
+        <v>8.0963159999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1467.370000</v>
+        <v>1467.37</v>
       </c>
       <c r="CA3" s="1">
-        <v>-909.429000</v>
+        <v>-909.42899999999997</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>29158.274151</v>
+        <v>29158.274151000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.099521</v>
+        <v>8.0995209999999993</v>
       </c>
       <c r="CE3" s="1">
-        <v>1822.000000</v>
+        <v>1822</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1417.990000</v>
+        <v>-1417.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>28987.691052</v>
+        <v>28987.691051999998</v>
       </c>
       <c r="B4" s="1">
-        <v>8.052136</v>
+        <v>8.0521360000000008</v>
       </c>
       <c r="C4" s="1">
-        <v>901.283000</v>
+        <v>901.28300000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.490000</v>
+        <v>-202.49</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>28997.763307</v>
+        <v>28997.763307000001</v>
       </c>
       <c r="G4" s="1">
-        <v>8.054934</v>
+        <v>8.0549339999999994</v>
       </c>
       <c r="H4" s="1">
-        <v>919.142000</v>
+        <v>919.14200000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-170.776000</v>
+        <v>-170.77600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>29008.482349</v>
+        <v>29008.482349000002</v>
       </c>
       <c r="L4" s="1">
         <v>8.057912</v>
       </c>
       <c r="M4" s="1">
-        <v>942.632000</v>
+        <v>942.63199999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.291000</v>
+        <v>-121.291</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>29019.000511</v>
+        <v>29019.000510999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.060833</v>
+        <v>8.0608330000000006</v>
       </c>
       <c r="R4" s="1">
-        <v>949.368000</v>
+        <v>949.36800000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.380000</v>
+        <v>-104.38</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>29029.252819</v>
+        <v>29029.252819000001</v>
       </c>
       <c r="V4" s="1">
-        <v>8.063681</v>
+        <v>8.0636810000000008</v>
       </c>
       <c r="W4" s="1">
-        <v>955.929000</v>
+        <v>955.92899999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.929200</v>
+        <v>-88.929199999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>29039.414358</v>
+        <v>29039.414358000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.066504</v>
+        <v>8.0665040000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.895000</v>
+        <v>962.89499999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.016700</v>
+        <v>-77.0167</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>29049.726182</v>
+        <v>29049.726181999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.069368</v>
+        <v>8.0693680000000008</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.342000</v>
+        <v>967.34199999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.662900</v>
+        <v>-74.662899999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>29059.765248</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.072157</v>
+        <v>8.0721570000000007</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.539000</v>
+        <v>974.53899999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.100000</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>29070.025948</v>
+        <v>29070.025947999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.075007</v>
+        <v>8.0750069999999994</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.492000</v>
+        <v>982.49199999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.501600</v>
+        <v>-90.501599999999996</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>29081.052013</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.078070</v>
+        <v>8.0780700000000003</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.199000</v>
+        <v>992.19899999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-107.968000</v>
+        <v>-107.968</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>29092.184718</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.081162</v>
+        <v>8.0811620000000008</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.423000</v>
+        <v>-123.423</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>29103.118032</v>
+        <v>29103.118031999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.084199</v>
+        <v>8.0841989999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.819000</v>
+        <v>-194.81899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>29114.939185</v>
+        <v>29114.939184999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.087483</v>
+        <v>8.0874830000000006</v>
       </c>
       <c r="BK4" s="1">
-        <v>1104.340000</v>
+        <v>1104.3399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.854000</v>
+        <v>-310.85399999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>29124.976755</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.090271</v>
+        <v>8.0902709999999995</v>
       </c>
       <c r="BP4" s="1">
-        <v>1211.470000</v>
+        <v>1211.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-493.983000</v>
+        <v>-493.983</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>29135.736934</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.093260</v>
+        <v>8.0932600000000008</v>
       </c>
       <c r="BU4" s="1">
-        <v>1332.180000</v>
+        <v>1332.18</v>
       </c>
       <c r="BV4" s="1">
-        <v>-694.711000</v>
+        <v>-694.71100000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>29147.160295</v>
+        <v>29147.160295000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.096433</v>
+        <v>8.0964329999999993</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1467.340000</v>
+        <v>1467.34</v>
       </c>
       <c r="CA4" s="1">
-        <v>-909.263000</v>
+        <v>-909.26300000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>29159.109414</v>
+        <v>29159.109413999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.099753</v>
+        <v>8.0997529999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1822.090000</v>
+        <v>1822.09</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1419.300000</v>
+        <v>-1419.3</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>28988.050162</v>
       </c>
       <c r="B5" s="1">
-        <v>8.052236</v>
+        <v>8.0522360000000006</v>
       </c>
       <c r="C5" s="1">
-        <v>901.316000</v>
+        <v>901.31600000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.427000</v>
+        <v>-202.42699999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>28998.109516</v>
       </c>
       <c r="G5" s="1">
-        <v>8.055030</v>
+        <v>8.0550300000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>919.430000</v>
+        <v>919.43</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.332000</v>
+        <v>-171.33199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>29008.820620</v>
+        <v>29008.820619999999</v>
       </c>
       <c r="L5" s="1">
-        <v>8.058006</v>
+        <v>8.0580060000000007</v>
       </c>
       <c r="M5" s="1">
-        <v>942.719000</v>
+        <v>942.71900000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.923000</v>
+        <v>-120.923</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>29019.349198</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.060930</v>
+        <v>8.0609300000000008</v>
       </c>
       <c r="R5" s="1">
-        <v>949.404000</v>
+        <v>949.404</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.341000</v>
+        <v>-104.34099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>29029.672451</v>
+        <v>29029.672450999999</v>
       </c>
       <c r="V5" s="1">
-        <v>8.063798</v>
+        <v>8.0637980000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>955.819000</v>
+        <v>955.81899999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.956300</v>
+        <v>-88.956299999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>29039.836452</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.066621</v>
+        <v>8.0666209999999996</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.868000</v>
+        <v>962.86800000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.975800</v>
+        <v>-76.975800000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>29049.991047</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.069442</v>
+        <v>8.0694420000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.407000</v>
+        <v>967.40700000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.594000</v>
+        <v>-74.593999999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>29060.111914</v>
+        <v>29060.111914000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.072253</v>
+        <v>8.0722529999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.511000</v>
+        <v>974.51099999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.073600</v>
+        <v>-79.073599999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>29070.397452</v>
+        <v>29070.397452000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.075110</v>
+        <v>8.0751100000000005</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.486000</v>
+        <v>982.48599999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.482500</v>
+        <v>-90.482500000000002</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>29081.416574</v>
+        <v>29081.416573999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.078171</v>
+        <v>8.0781709999999993</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.201000</v>
+        <v>992.20100000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-107.967000</v>
+        <v>-107.967</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>29092.900446</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.081361</v>
+        <v>8.0813609999999994</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.448000</v>
+        <v>-123.44799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>29103.841735</v>
+        <v>29103.841735000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.084400</v>
+        <v>8.0844000000000005</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.851000</v>
+        <v>-194.851</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>29115.315648</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.087588</v>
+        <v>8.0875880000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1104.350000</v>
+        <v>1104.3499999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.841000</v>
+        <v>-310.84100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>29125.373026</v>
+        <v>29125.373026000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.090381</v>
+        <v>8.0903810000000007</v>
       </c>
       <c r="BP5" s="1">
-        <v>1211.490000</v>
+        <v>1211.49</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-493.972000</v>
+        <v>-493.97199999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>29136.175892</v>
+        <v>29136.175891999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.093382</v>
+        <v>8.0933820000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1332.160000</v>
+        <v>1332.16</v>
       </c>
       <c r="BV5" s="1">
-        <v>-694.729000</v>
+        <v>-694.72900000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>29147.909253</v>
+        <v>29147.909253000002</v>
       </c>
       <c r="BY5" s="1">
         <v>8.096641</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1467.360000</v>
+        <v>1467.36</v>
       </c>
       <c r="CA5" s="1">
-        <v>-909.401000</v>
+        <v>-909.40099999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>29159.345542</v>
+        <v>29159.345541999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.099818</v>
+        <v>8.0998180000000009</v>
       </c>
       <c r="CE5" s="1">
-        <v>1823.670000</v>
+        <v>1823.67</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1418.560000</v>
+        <v>-1418.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>28988.392888</v>
+        <v>28988.392887999998</v>
       </c>
       <c r="B6" s="1">
-        <v>8.052331</v>
+        <v>8.0523310000000006</v>
       </c>
       <c r="C6" s="1">
-        <v>901.340000</v>
+        <v>901.34</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.491000</v>
+        <v>-202.49100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>28998.457708</v>
+        <v>28998.457708000002</v>
       </c>
       <c r="G6" s="1">
-        <v>8.055127</v>
+        <v>8.0551270000000006</v>
       </c>
       <c r="H6" s="1">
-        <v>919.495000</v>
+        <v>919.495</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.408000</v>
+        <v>-171.40799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>29009.237789</v>
+        <v>29009.237788999999</v>
       </c>
       <c r="L6" s="1">
-        <v>8.058122</v>
+        <v>8.0581219999999991</v>
       </c>
       <c r="M6" s="1">
-        <v>942.661000</v>
+        <v>942.66099999999994</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.881000</v>
+        <v>-120.881</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>29019.770335</v>
+        <v>29019.770335000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.061047</v>
+        <v>8.0610470000000003</v>
       </c>
       <c r="R6" s="1">
-        <v>949.370000</v>
+        <v>949.37</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.332000</v>
+        <v>-104.33199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>29029.944242</v>
+        <v>29029.944242000001</v>
       </c>
       <c r="V6" s="1">
-        <v>8.063873</v>
+        <v>8.0638729999999992</v>
       </c>
       <c r="W6" s="1">
-        <v>955.824000</v>
+        <v>955.82399999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.898000</v>
+        <v>-88.897999999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>29040.130580</v>
+        <v>29040.130580000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.066703</v>
+        <v>8.0667030000000004</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.851000</v>
+        <v>962.851</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.022300</v>
+        <v>-77.022300000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>29050.332790</v>
+        <v>29050.33279</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.069537</v>
+        <v>8.0695370000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.397000</v>
+        <v>967.39700000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.657300</v>
+        <v>-74.657300000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>29060.460360</v>
+        <v>29060.460360000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.072350</v>
+        <v>8.0723500000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.519000</v>
+        <v>974.51900000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.118900</v>
+        <v>-79.118899999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>29070.755563</v>
+        <v>29070.755562999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.075210</v>
+        <v>8.0752100000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.470000</v>
+        <v>982.47</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.466800</v>
+        <v>-90.466800000000006</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>29082.145195</v>
+        <v>29082.145195000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.078374</v>
+        <v>8.0783740000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.186000</v>
+        <v>992.18600000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-107.974000</v>
+        <v>-107.974</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>29093.286365</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.081468</v>
+        <v>8.0814679999999992</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.320000</v>
+        <v>1000.32</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.468000</v>
+        <v>-123.468</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>29104.230062</v>
+        <v>29104.230061999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.084508</v>
+        <v>8.0845079999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.823000</v>
+        <v>-194.82300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>29115.690623</v>
+        <v>29115.690622999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.087692</v>
+        <v>8.0876920000000005</v>
       </c>
       <c r="BK6" s="1">
-        <v>1104.340000</v>
+        <v>1104.3399999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.872000</v>
+        <v>-310.87200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>29126.102146</v>
+        <v>29126.102146000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.090584</v>
+        <v>8.0905839999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1211.470000</v>
+        <v>1211.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-493.981000</v>
+        <v>-493.98099999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>29136.914435</v>
+        <v>29136.914434999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.093587</v>
+        <v>8.0935869999999994</v>
       </c>
       <c r="BU6" s="1">
-        <v>1332.170000</v>
+        <v>1332.17</v>
       </c>
       <c r="BV6" s="1">
-        <v>-694.745000</v>
+        <v>-694.745</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>29148.031765</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.096675</v>
+        <v>8.0966749999999994</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1467.320000</v>
+        <v>1467.32</v>
       </c>
       <c r="CA6" s="1">
-        <v>-909.486000</v>
+        <v>-909.48599999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>29159.879205</v>
+        <v>29159.879205000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.099966</v>
+        <v>8.0999660000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1822.010000</v>
+        <v>1822.01</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1417.730000</v>
+        <v>-1417.73</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>28988.741575</v>
       </c>
       <c r="B7" s="1">
-        <v>8.052428</v>
+        <v>8.0524280000000008</v>
       </c>
       <c r="C7" s="1">
-        <v>901.351000</v>
+        <v>901.351</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.597000</v>
+        <v>-202.59700000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>28998.895684</v>
+        <v>28998.895683999999</v>
       </c>
       <c r="G7" s="1">
-        <v>8.055249</v>
+        <v>8.0552489999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>919.262000</v>
+        <v>919.26199999999994</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.625000</v>
+        <v>-171.625</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>29009.536379</v>
+        <v>29009.536379000001</v>
       </c>
       <c r="L7" s="1">
-        <v>8.058205</v>
+        <v>8.0582049999999992</v>
       </c>
       <c r="M7" s="1">
-        <v>942.699000</v>
+        <v>942.69899999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.087000</v>
+        <v>-121.087</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>29020.049086</v>
+        <v>29020.049085999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.061125</v>
+        <v>8.0611250000000005</v>
       </c>
       <c r="R7" s="1">
-        <v>949.402000</v>
+        <v>949.40200000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.297000</v>
+        <v>-104.297</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>29030.288987</v>
       </c>
       <c r="V7" s="1">
-        <v>8.063969</v>
+        <v>8.0639690000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>955.837000</v>
+        <v>955.83699999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.911300</v>
+        <v>-88.911299999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>29040.475796</v>
+        <v>29040.475795999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.066799</v>
+        <v>8.0667989999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.825000</v>
+        <v>962.82500000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.975600</v>
+        <v>-76.9756</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>29050.676021</v>
+        <v>29050.676020999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.069632</v>
+        <v>8.0696320000000004</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.432000</v>
+        <v>967.43200000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.634300</v>
+        <v>-74.634299999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>29061.160953</v>
+        <v>29061.160952999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.072545</v>
+        <v>8.0725449999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.503000</v>
+        <v>974.50300000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.097200</v>
+        <v>-79.097200000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>29071.473274</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.075409</v>
+        <v>8.0754090000000005</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.498000</v>
+        <v>982.49800000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.483900</v>
+        <v>-90.483900000000006</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>29082.532603</v>
@@ -1901,1406 +2317,1406 @@
         <v>8.078481</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.224000</v>
+        <v>992.22400000000005</v>
       </c>
       <c r="AW7" s="1">
-        <v>-107.965000</v>
+        <v>-107.965</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>29093.645474</v>
+        <v>29093.645474000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.081568</v>
+        <v>8.0815680000000008</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.449000</v>
+        <v>-123.449</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>29104.593630</v>
+        <v>29104.593629999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.084609</v>
+        <v>8.0846090000000004</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.815000</v>
+        <v>-194.815</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>29116.375104</v>
+        <v>29116.375103999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.087882</v>
+        <v>8.0878820000000005</v>
       </c>
       <c r="BK7" s="1">
-        <v>1104.350000</v>
+        <v>1104.3499999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.854000</v>
+        <v>-310.85399999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>29126.217217</v>
+        <v>29126.217217000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.090616</v>
+        <v>8.0906160000000007</v>
       </c>
       <c r="BP7" s="1">
-        <v>1211.490000</v>
+        <v>1211.49</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-493.995000</v>
+        <v>-493.995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>29137.048355</v>
+        <v>29137.048354999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.093625</v>
+        <v>8.0936249999999994</v>
       </c>
       <c r="BU7" s="1">
-        <v>1332.180000</v>
+        <v>1332.18</v>
       </c>
       <c r="BV7" s="1">
-        <v>-694.748000</v>
+        <v>-694.74800000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>29148.472245</v>
+        <v>29148.472245000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.096798</v>
+        <v>8.0967979999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1467.400000</v>
+        <v>1467.4</v>
       </c>
       <c r="CA7" s="1">
-        <v>-909.456000</v>
+        <v>-909.45600000000002</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>29160.418854</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.100116</v>
+        <v>8.1001159999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1822.630000</v>
+        <v>1822.63</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1419.410000</v>
+        <v>-1419.41</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>28989.175079</v>
+        <v>28989.175079000001</v>
       </c>
       <c r="B8" s="1">
-        <v>8.052549</v>
+        <v>8.0525490000000008</v>
       </c>
       <c r="C8" s="1">
-        <v>901.240000</v>
+        <v>901.24</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.606000</v>
+        <v>-202.60599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>28999.163545</v>
+        <v>28999.163544999999</v>
       </c>
       <c r="G8" s="1">
-        <v>8.055323</v>
+        <v>8.0553229999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>919.171000</v>
+        <v>919.17100000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-170.923000</v>
+        <v>-170.923</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>29009.882588</v>
       </c>
       <c r="L8" s="1">
-        <v>8.058301</v>
+        <v>8.0583010000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>942.568000</v>
+        <v>942.56799999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.896000</v>
+        <v>-120.896</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>29020.396749</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.061221</v>
+        <v>8.0612209999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>949.419000</v>
+        <v>949.41899999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.353000</v>
+        <v>-104.35299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>29030.634208</v>
+        <v>29030.634207999999</v>
       </c>
       <c r="V8" s="1">
-        <v>8.064065</v>
+        <v>8.0640649999999994</v>
       </c>
       <c r="W8" s="1">
-        <v>955.816000</v>
+        <v>955.81600000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.935500</v>
+        <v>-88.935500000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>29041.148408</v>
+        <v>29041.148408000001</v>
       </c>
       <c r="AA8" s="1">
         <v>8.066986</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.755000</v>
+        <v>962.755</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.898700</v>
+        <v>-76.898700000000005</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>29051.365989</v>
+        <v>29051.365989000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.069824</v>
+        <v>8.0698240000000006</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.383000</v>
+        <v>967.38300000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.633000</v>
+        <v>-74.632999999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>29061.506663</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.072641</v>
+        <v>8.0726410000000008</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.511000</v>
+        <v>974.51099999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.103000</v>
+        <v>-79.102999999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>29071.835851</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.075510</v>
+        <v>8.0755099999999995</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.467000</v>
+        <v>982.46699999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.485000</v>
+        <v>-90.484999999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>29082.897626</v>
+        <v>29082.897626000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.078583</v>
+        <v>8.0785830000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.181000</v>
+        <v>992.18100000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-107.966000</v>
+        <v>-107.96599999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>29094.314566</v>
+        <v>29094.314566000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.081754</v>
+        <v>8.0817540000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.360000</v>
+        <v>1000.36</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.458000</v>
+        <v>-123.458</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>29105.257277</v>
+        <v>29105.257277000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.084794</v>
+        <v>8.0847940000000005</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.814000</v>
+        <v>-194.81399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>29116.485710</v>
+        <v>29116.485710000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.087913</v>
+        <v>8.0879130000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1104.350000</v>
+        <v>1104.3499999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.827000</v>
+        <v>-310.827</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>29126.616001</v>
+        <v>29126.616000999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.090727</v>
+        <v>8.0907269999999993</v>
       </c>
       <c r="BP8" s="1">
-        <v>1211.460000</v>
+        <v>1211.46</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-493.979000</v>
+        <v>-493.97899999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>29137.460067</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.093739</v>
+        <v>8.0937389999999994</v>
       </c>
       <c r="BU8" s="1">
-        <v>1332.160000</v>
+        <v>1332.16</v>
       </c>
       <c r="BV8" s="1">
-        <v>-694.758000</v>
+        <v>-694.75800000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>29148.925555</v>
+        <v>29148.925555000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.096924</v>
+        <v>8.0969239999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1467.450000</v>
+        <v>1467.45</v>
       </c>
       <c r="CA8" s="1">
-        <v>-909.352000</v>
+        <v>-909.35199999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>29160.958501</v>
+        <v>29160.958501000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.100266</v>
+        <v>8.1002659999999995</v>
       </c>
       <c r="CE8" s="1">
-        <v>1823.690000</v>
+        <v>1823.69</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1417.920000</v>
+        <v>-1417.92</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>28989.443910</v>
+        <v>28989.443910000002</v>
       </c>
       <c r="B9" s="1">
-        <v>8.052623</v>
+        <v>8.0526230000000005</v>
       </c>
       <c r="C9" s="1">
-        <v>901.181000</v>
+        <v>901.18100000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.798000</v>
+        <v>-202.798</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>28999.504761</v>
       </c>
       <c r="G9" s="1">
-        <v>8.055418</v>
+        <v>8.0554179999999995</v>
       </c>
       <c r="H9" s="1">
-        <v>919.182000</v>
+        <v>919.18200000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.966000</v>
+        <v>-170.96600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>29010.230288</v>
+        <v>29010.230287999999</v>
       </c>
       <c r="L9" s="1">
-        <v>8.058397</v>
+        <v>8.0583969999999994</v>
       </c>
       <c r="M9" s="1">
-        <v>942.855000</v>
+        <v>942.85500000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.996000</v>
+        <v>-120.996</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>29020.746430</v>
+        <v>29020.746429999999</v>
       </c>
       <c r="Q9" s="1">
         <v>8.061318</v>
       </c>
       <c r="R9" s="1">
-        <v>949.384000</v>
+        <v>949.38400000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.379000</v>
+        <v>-104.379</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>29031.319683</v>
+        <v>29031.319683000002</v>
       </c>
       <c r="V9" s="1">
-        <v>8.064255</v>
+        <v>8.0642549999999993</v>
       </c>
       <c r="W9" s="1">
-        <v>955.783000</v>
+        <v>955.78300000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.974500</v>
+        <v>-88.974500000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>29041.520867</v>
+        <v>29041.520866999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.067089</v>
+        <v>8.0670889999999993</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.777000</v>
+        <v>962.77700000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.984700</v>
+        <v>-76.984700000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>29051.708721</v>
+        <v>29051.708720999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.069919</v>
+        <v>8.0699190000000005</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.412000</v>
+        <v>967.41200000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.631300</v>
+        <v>-74.631299999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>29061.857831</v>
+        <v>29061.857831000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.072738</v>
+        <v>8.0727379999999993</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.522000</v>
+        <v>974.52200000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.115100</v>
+        <v>-79.115099999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>29072.194954</v>
+        <v>29072.194953999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.075610</v>
+        <v>8.0756099999999993</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.472000</v>
+        <v>982.47199999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.497200</v>
+        <v>-90.497200000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>29083.577641</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.078772</v>
+        <v>8.0787720000000007</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.204000</v>
+        <v>992.20399999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-107.953000</v>
+        <v>-107.953</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>29094.757362</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.081877</v>
+        <v>8.0818770000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.360000</v>
+        <v>1000.36</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.460000</v>
+        <v>-123.46</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>29105.709132</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.084919</v>
+        <v>8.0849189999999993</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.826000</v>
+        <v>-194.82599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>29116.849807</v>
+        <v>29116.849806999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.088014</v>
+        <v>8.0880139999999994</v>
       </c>
       <c r="BK9" s="1">
-        <v>1104.370000</v>
+        <v>1104.3699999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.842000</v>
+        <v>-310.84199999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>29127.037104</v>
+        <v>29127.037103999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.090844</v>
+        <v>8.0908440000000006</v>
       </c>
       <c r="BP9" s="1">
-        <v>1211.470000</v>
+        <v>1211.47</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-493.975000</v>
+        <v>-493.97500000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>29137.890097</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.093858</v>
+        <v>8.0938580000000009</v>
       </c>
       <c r="BU9" s="1">
-        <v>1332.200000</v>
+        <v>1332.2</v>
       </c>
       <c r="BV9" s="1">
-        <v>-694.726000</v>
+        <v>-694.726</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>29149.376451</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.097049</v>
+        <v>8.0970490000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1467.300000</v>
+        <v>1467.3</v>
       </c>
       <c r="CA9" s="1">
-        <v>-909.499000</v>
+        <v>-909.49900000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>29161.501402</v>
+        <v>29161.501402000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.100417</v>
+        <v>8.1004170000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1821.790000</v>
+        <v>1821.79</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1418.740000</v>
+        <v>-1418.74</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>28989.790154</v>
+        <v>28989.790153999998</v>
       </c>
       <c r="B10" s="1">
-        <v>8.052719</v>
+        <v>8.0527189999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>901.160000</v>
+        <v>901.16</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.655000</v>
+        <v>-202.655</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>28999.850008</v>
+        <v>28999.850008000001</v>
       </c>
       <c r="G10" s="1">
-        <v>8.055514</v>
+        <v>8.0555140000000005</v>
       </c>
       <c r="H10" s="1">
-        <v>919.455000</v>
+        <v>919.45500000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.018000</v>
+        <v>-171.018</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>29010.921205</v>
+        <v>29010.921204999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.058589</v>
+        <v>8.0585889999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>942.742000</v>
+        <v>942.74199999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.942000</v>
+        <v>-120.94199999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>29021.442848</v>
+        <v>29021.442847999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.061512</v>
+        <v>8.0615120000000005</v>
       </c>
       <c r="R10" s="1">
-        <v>949.357000</v>
+        <v>949.35699999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.362000</v>
+        <v>-104.36199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>29031.663902</v>
       </c>
       <c r="V10" s="1">
-        <v>8.064351</v>
+        <v>8.0643510000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>955.844000</v>
+        <v>955.84400000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.873900</v>
+        <v>-88.873900000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>29041.867569</v>
+        <v>29041.867568999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.067185</v>
+        <v>8.0671850000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.791000</v>
+        <v>962.79100000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.906600</v>
+        <v>-76.906599999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>29052.054899</v>
+        <v>29052.054898999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.070015</v>
+        <v>8.0700149999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.389000</v>
+        <v>967.38900000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.591900</v>
+        <v>-74.591899999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>29062.516022</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.072921</v>
+        <v>8.0729209999999991</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.534000</v>
+        <v>974.53399999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.137400</v>
+        <v>-79.1374</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>29072.880958</v>
+        <v>29072.880958000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.075800</v>
+        <v>8.0757999999999992</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.477000</v>
+        <v>982.47699999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.495100</v>
+        <v>-90.495099999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>29084.024056</v>
+        <v>29084.024055999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.078896</v>
+        <v>8.0788960000000003</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.204000</v>
+        <v>992.20399999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-107.988000</v>
+        <v>-107.988</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>29095.115082</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.081976</v>
+        <v>8.0819759999999992</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.460000</v>
+        <v>-123.46</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>29106.071212</v>
+        <v>29106.071211999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.085020</v>
+        <v>8.0850200000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.835000</v>
+        <v>-194.83500000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>29117.226237</v>
+        <v>29117.226236999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.088118</v>
+        <v>8.0881179999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1104.340000</v>
+        <v>1104.3399999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.849000</v>
+        <v>-310.84899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>29127.456255</v>
+        <v>29127.456255000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.090960</v>
+        <v>8.0909600000000008</v>
       </c>
       <c r="BP10" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-493.961000</v>
+        <v>-493.96100000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>29138.310178</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.093975</v>
+        <v>8.0939750000000004</v>
       </c>
       <c r="BU10" s="1">
-        <v>1332.130000</v>
+        <v>1332.13</v>
       </c>
       <c r="BV10" s="1">
-        <v>-694.777000</v>
+        <v>-694.77700000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>29149.833732</v>
+        <v>29149.833731999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.097176</v>
+        <v>8.0971759999999993</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1467.410000</v>
+        <v>1467.41</v>
       </c>
       <c r="CA10" s="1">
-        <v>-909.386000</v>
+        <v>-909.38599999999997</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>29162.037311</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.100566</v>
+        <v>8.1005660000000006</v>
       </c>
       <c r="CE10" s="1">
-        <v>1823.310000</v>
+        <v>1823.31</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1418.760000</v>
+        <v>-1418.76</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>28990.130384</v>
       </c>
       <c r="B11" s="1">
-        <v>8.052814</v>
+        <v>8.0528139999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>901.399000</v>
+        <v>901.399</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.509000</v>
+        <v>-202.50899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>29000.538951</v>
+        <v>29000.538950999999</v>
       </c>
       <c r="G11" s="1">
-        <v>8.055705</v>
+        <v>8.0557049999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>919.346000</v>
+        <v>919.346</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.222000</v>
+        <v>-171.22200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>29011.266393</v>
+        <v>29011.266393000002</v>
       </c>
       <c r="L11" s="1">
-        <v>8.058685</v>
+        <v>8.0586850000000005</v>
       </c>
       <c r="M11" s="1">
-        <v>942.693000</v>
+        <v>942.69299999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.892000</v>
+        <v>-120.892</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>29021.791035</v>
+        <v>29021.791034999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.061609</v>
+        <v>8.0616090000000007</v>
       </c>
       <c r="R11" s="1">
-        <v>949.380000</v>
+        <v>949.38</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.330000</v>
+        <v>-104.33</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>29032.006110</v>
+        <v>29032.006109999998</v>
       </c>
       <c r="V11" s="1">
-        <v>8.064446</v>
+        <v>8.0644460000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>955.759000</v>
+        <v>955.75900000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.860500</v>
+        <v>-88.860500000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>29042.530757</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.067370</v>
+        <v>8.0673700000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.764000</v>
+        <v>962.76400000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.959700</v>
+        <v>-76.959699999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>29052.711107</v>
+        <v>29052.711106999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.070198</v>
+        <v>8.0701979999999995</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.417000</v>
+        <v>967.41700000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.638200</v>
+        <v>-74.638199999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>29062.899429</v>
+        <v>29062.899429000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.073028</v>
+        <v>8.0730280000000008</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.536000</v>
+        <v>974.53599999999994</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.104200</v>
+        <v>-79.104200000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>29073.350631</v>
+        <v>29073.350631000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.075931</v>
+        <v>8.0759310000000006</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.466000</v>
+        <v>982.46600000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.484000</v>
+        <v>-90.483999999999995</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>29084.388104</v>
+        <v>29084.388104000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.078997</v>
+        <v>8.0789969999999993</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.201000</v>
+        <v>992.20100000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-107.970000</v>
+        <v>-107.97</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>29095.475712</v>
+        <v>29095.475711999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>8.082077</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.465000</v>
+        <v>-123.465</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>29106.430315</v>
+        <v>29106.430315000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.085120</v>
+        <v>8.0851199999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.814000</v>
+        <v>-194.81399999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>29117.648333</v>
+        <v>29117.648333000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.088236</v>
+        <v>8.0882360000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1104.330000</v>
+        <v>1104.33</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.845000</v>
+        <v>-310.84500000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>29127.862481</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.091073</v>
+        <v>8.0910729999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1211.470000</v>
+        <v>1211.47</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-493.986000</v>
+        <v>-493.98599999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>29138.719874</v>
+        <v>29138.719873999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.094089</v>
+        <v>8.0940890000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1332.190000</v>
+        <v>1332.19</v>
       </c>
       <c r="BV11" s="1">
-        <v>-694.789000</v>
+        <v>-694.78899999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>29150.281618</v>
+        <v>29150.281618000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.097300</v>
+        <v>8.0973000000000006</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1467.400000</v>
+        <v>1467.4</v>
       </c>
       <c r="CA11" s="1">
-        <v>-909.271000</v>
+        <v>-909.27099999999996</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>29162.577473</v>
+        <v>29162.577473000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.100716</v>
+        <v>8.1007160000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1822.250000</v>
+        <v>1822.25</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1418.060000</v>
+        <v>-1418.06</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>28990.818325</v>
       </c>
       <c r="B12" s="1">
-        <v>8.053005</v>
+        <v>8.0530050000000006</v>
       </c>
       <c r="C12" s="1">
-        <v>901.195000</v>
+        <v>901.19500000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.499000</v>
+        <v>-202.499</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>29000.881655</v>
+        <v>29000.881655000001</v>
       </c>
       <c r="G12" s="1">
-        <v>8.055800</v>
+        <v>8.0557999999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>919.501000</v>
+        <v>919.50099999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-170.923000</v>
+        <v>-170.923</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>29011.612635</v>
+        <v>29011.612635000001</v>
       </c>
       <c r="L12" s="1">
-        <v>8.058781</v>
+        <v>8.0587809999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>942.720000</v>
+        <v>942.72</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.064000</v>
+        <v>-121.06399999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>29022.140715</v>
+        <v>29022.140715000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.061706</v>
+        <v>8.0617059999999992</v>
       </c>
       <c r="R12" s="1">
-        <v>949.424000</v>
+        <v>949.42399999999998</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.328000</v>
+        <v>-104.328</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>29032.658381</v>
+        <v>29032.658381000001</v>
       </c>
       <c r="V12" s="1">
-        <v>8.064627</v>
+        <v>8.0646269999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>955.914000</v>
+        <v>955.91399999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.970300</v>
+        <v>-88.970299999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>29042.913664</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.067476</v>
+        <v>8.0674759999999992</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.828000</v>
+        <v>962.82799999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.943400</v>
+        <v>-76.943399999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>29053.085618</v>
+        <v>29053.085618000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.070302</v>
+        <v>8.0703019999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.426000</v>
+        <v>967.42600000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.626200</v>
+        <v>-74.626199999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>29063.238196</v>
+        <v>29063.238195999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.073122</v>
+        <v>8.0731219999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.532000</v>
+        <v>974.53200000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.101600</v>
+        <v>-79.101600000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>29073.692382</v>
+        <v>29073.692382000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.076026</v>
+        <v>8.0760260000000006</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.481000</v>
+        <v>982.48099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.495400</v>
+        <v>-90.495400000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>29084.754190</v>
+        <v>29084.75419</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.079098</v>
+        <v>8.0790980000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.203000</v>
+        <v>992.20299999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-107.985000</v>
+        <v>-107.985</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>29095.898761</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.082194</v>
+        <v>8.0821939999999994</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.444000</v>
+        <v>-123.444</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>29107.153482</v>
+        <v>29107.153482000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.085320</v>
+        <v>8.0853199999999994</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.858000</v>
+        <v>-194.858</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>29117.976722</v>
+        <v>29117.976721999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.088327</v>
+        <v>8.0883269999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1104.350000</v>
+        <v>1104.3499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.849000</v>
+        <v>-310.84899999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>29128.252799</v>
+        <v>29128.252799000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.091181</v>
+        <v>8.0911810000000006</v>
       </c>
       <c r="BP12" s="1">
-        <v>1211.460000</v>
+        <v>1211.46</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-493.963000</v>
+        <v>-493.96300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>29139.132544</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.094203</v>
+        <v>8.0942030000000003</v>
       </c>
       <c r="BU12" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="BV12" s="1">
-        <v>-694.774000</v>
+        <v>-694.774</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>29150.703714</v>
+        <v>29150.703713999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.097418</v>
+        <v>8.0974179999999993</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1467.380000</v>
+        <v>1467.38</v>
       </c>
       <c r="CA12" s="1">
-        <v>-909.355000</v>
+        <v>-909.35500000000002</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>29163.117935</v>
+        <v>29163.117934999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.100866</v>
+        <v>8.1008659999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1822.620000</v>
+        <v>1822.62</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1419.060000</v>
+        <v>-1419.06</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>28991.146676</v>
       </c>
@@ -3308,647 +3724,647 @@
         <v>8.053096</v>
       </c>
       <c r="C13" s="1">
-        <v>901.471000</v>
+        <v>901.471</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.371000</v>
+        <v>-202.37100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>29001.225910</v>
+        <v>29001.225910000001</v>
       </c>
       <c r="G13" s="1">
-        <v>8.055896</v>
+        <v>8.0558960000000006</v>
       </c>
       <c r="H13" s="1">
-        <v>919.162000</v>
+        <v>919.16200000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.141000</v>
+        <v>-171.14099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>29012.269832</v>
+        <v>29012.269832000002</v>
       </c>
       <c r="L13" s="1">
-        <v>8.058964</v>
+        <v>8.0589639999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>942.384000</v>
+        <v>942.38400000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.003000</v>
+        <v>-121.003</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>29022.794939</v>
+        <v>29022.794938999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.061887</v>
+        <v>8.0618870000000005</v>
       </c>
       <c r="R13" s="1">
-        <v>949.417000</v>
+        <v>949.41700000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.345000</v>
+        <v>-104.345</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>29033.037294</v>
+        <v>29033.037294000002</v>
       </c>
       <c r="V13" s="1">
-        <v>8.064733</v>
+        <v>8.0647330000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>955.793000</v>
+        <v>955.79300000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.924400</v>
+        <v>-88.924400000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>29043.262846</v>
+        <v>29043.262846000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.067573</v>
+        <v>8.0675729999999994</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.956000</v>
+        <v>962.95600000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.017500</v>
+        <v>-77.017499999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>29053.430341</v>
+        <v>29053.430340999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.070397</v>
+        <v>8.0703969999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.435000</v>
+        <v>967.43499999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.609200</v>
+        <v>-74.609200000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>29063.598820</v>
+        <v>29063.598819999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.073222</v>
+        <v>8.0732219999999995</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.519000</v>
+        <v>974.51900000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.100500</v>
+        <v>-79.100499999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>29074.145222</v>
+        <v>29074.145221999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.076151</v>
+        <v>8.0761509999999994</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.479000</v>
+        <v>982.47900000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.491400</v>
+        <v>-90.491399999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>29085.179719</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.079217</v>
+        <v>8.0792169999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.184000</v>
+        <v>992.18399999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-107.950000</v>
+        <v>-107.95</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>29096.191433</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.082275</v>
+        <v>8.0822749999999992</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.452000</v>
+        <v>-123.452</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>29107.539370</v>
+        <v>29107.539369999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.085428</v>
+        <v>8.0854280000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.814000</v>
+        <v>-194.81399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>29118.351660</v>
+        <v>29118.35166</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.088431</v>
+        <v>8.0884309999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1104.360000</v>
+        <v>1104.3599999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.832000</v>
+        <v>-310.83199999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>29128.670443</v>
+        <v>29128.670442999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.091297</v>
+        <v>8.0912970000000008</v>
       </c>
       <c r="BP13" s="1">
-        <v>1211.510000</v>
+        <v>1211.51</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-493.985000</v>
+        <v>-493.98500000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>29139.886596</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.094413</v>
+        <v>8.0944129999999994</v>
       </c>
       <c r="BU13" s="1">
-        <v>1332.230000</v>
+        <v>1332.23</v>
       </c>
       <c r="BV13" s="1">
-        <v>-694.808000</v>
+        <v>-694.80799999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>29151.123365</v>
+        <v>29151.123364999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.097534</v>
+        <v>8.0975339999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1467.400000</v>
+        <v>1467.4</v>
       </c>
       <c r="CA13" s="1">
-        <v>-909.384000</v>
+        <v>-909.38400000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>29163.656240</v>
+        <v>29163.65624</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.101016</v>
+        <v>8.1010159999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>1823.070000</v>
+        <v>1823.07</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1418.000000</v>
+        <v>-1418</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>28991.497349</v>
+        <v>28991.497349000001</v>
       </c>
       <c r="B14" s="1">
-        <v>8.053194</v>
+        <v>8.0531939999999995</v>
       </c>
       <c r="C14" s="1">
-        <v>901.237000</v>
+        <v>901.23699999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.595000</v>
+        <v>-202.595</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>29002.111733</v>
+        <v>29002.111733000002</v>
       </c>
       <c r="G14" s="1">
-        <v>8.056142</v>
+        <v>8.0561419999999995</v>
       </c>
       <c r="H14" s="1">
-        <v>919.503000</v>
+        <v>919.50300000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.812000</v>
+        <v>-171.81200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>29012.646297</v>
+        <v>29012.646296999999</v>
       </c>
       <c r="L14" s="1">
-        <v>8.059068</v>
+        <v>8.0590679999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>942.820000</v>
+        <v>942.82</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.866000</v>
+        <v>-120.866</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>29023.186250</v>
+        <v>29023.186249999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.061996</v>
+        <v>8.0619960000000006</v>
       </c>
       <c r="R14" s="1">
-        <v>949.395000</v>
+        <v>949.39499999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.386000</v>
+        <v>-104.386</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>29033.379534</v>
       </c>
       <c r="V14" s="1">
-        <v>8.064828</v>
+        <v>8.0648280000000003</v>
       </c>
       <c r="W14" s="1">
-        <v>955.885000</v>
+        <v>955.88499999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.947100</v>
+        <v>-88.947100000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>29043.611774</v>
+        <v>29043.611774000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.067670</v>
+        <v>8.0676699999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.871000</v>
+        <v>962.87099999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.974900</v>
+        <v>-76.974900000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>29053.771585</v>
+        <v>29053.771584999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.070492</v>
+        <v>8.0704919999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.399000</v>
+        <v>967.399</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.604700</v>
+        <v>-74.604699999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>29064.018404</v>
+        <v>29064.018403999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.073338</v>
+        <v>8.0733379999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.500000</v>
+        <v>974.5</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.110200</v>
+        <v>-79.110200000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>29074.411112</v>
+        <v>29074.411112000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.076225</v>
+        <v>8.0762250000000009</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.469000</v>
+        <v>982.46900000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.493400</v>
+        <v>-90.493399999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>29085.483271</v>
+        <v>29085.483271000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.079301</v>
+        <v>8.0793009999999992</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.202000</v>
+        <v>992.202</v>
       </c>
       <c r="AW14" s="1">
-        <v>-107.975000</v>
+        <v>-107.97499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>29096.550537</v>
+        <v>29096.550536999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.082375</v>
+        <v>8.0823750000000008</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.451000</v>
+        <v>-123.45099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>29107.901449</v>
+        <v>29107.901449000001</v>
       </c>
       <c r="BE14" s="1">
         <v>8.085528</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.480000</v>
+        <v>1038.48</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.826000</v>
+        <v>-194.82599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>29118.751932</v>
+        <v>29118.751931999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.088542</v>
+        <v>8.0885420000000003</v>
       </c>
       <c r="BK14" s="1">
-        <v>1104.340000</v>
+        <v>1104.3399999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.854000</v>
+        <v>-310.85399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>29129.087567</v>
+        <v>29129.087566999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.091413</v>
+        <v>8.0914129999999993</v>
       </c>
       <c r="BP14" s="1">
-        <v>1211.460000</v>
+        <v>1211.46</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-493.986000</v>
+        <v>-493.98599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>29140.398831</v>
+        <v>29140.398830999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.094555</v>
+        <v>8.0945549999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="BV14" s="1">
-        <v>-694.741000</v>
+        <v>-694.74099999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>29151.551376</v>
+        <v>29151.551375999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.097653</v>
+        <v>8.0976529999999993</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1467.340000</v>
+        <v>1467.34</v>
       </c>
       <c r="CA14" s="1">
-        <v>-909.480000</v>
+        <v>-909.48</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>29164.197904</v>
+        <v>29164.197904000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.101166</v>
+        <v>8.1011659999999992</v>
       </c>
       <c r="CE14" s="1">
-        <v>1821.690000</v>
+        <v>1821.69</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1418.930000</v>
+        <v>-1418.93</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>28991.938787</v>
+        <v>28991.938786999999</v>
       </c>
       <c r="B15" s="1">
-        <v>8.053316</v>
+        <v>8.0533160000000006</v>
       </c>
       <c r="C15" s="1">
-        <v>901.326000</v>
+        <v>901.32600000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.403000</v>
+        <v>-202.40299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>29002.488725</v>
+        <v>29002.488724999999</v>
       </c>
       <c r="G15" s="1">
-        <v>8.056247</v>
+        <v>8.0562470000000008</v>
       </c>
       <c r="H15" s="1">
-        <v>919.529000</v>
+        <v>919.529</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.266000</v>
+        <v>-171.26599999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>29012.991974</v>
       </c>
       <c r="L15" s="1">
-        <v>8.059164</v>
+        <v>8.0591640000000009</v>
       </c>
       <c r="M15" s="1">
-        <v>942.561000</v>
+        <v>942.56100000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.849000</v>
+        <v>-120.849</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>29023.536461</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.062093</v>
+        <v>8.0620930000000008</v>
       </c>
       <c r="R15" s="1">
-        <v>949.384000</v>
+        <v>949.38400000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.377000</v>
+        <v>-104.377</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>29033.726235</v>
+        <v>29033.726234999998</v>
       </c>
       <c r="V15" s="1">
-        <v>8.064924</v>
+        <v>8.0649239999999995</v>
       </c>
       <c r="W15" s="1">
-        <v>955.870000</v>
+        <v>955.87</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.960600</v>
+        <v>-88.960599999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>29044.033134</v>
+        <v>29044.033134000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.067787</v>
+        <v>8.0677869999999992</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.759000</v>
+        <v>962.75900000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.958900</v>
+        <v>-76.9589</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>29054.200134</v>
+        <v>29054.200133999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.070611</v>
+        <v>8.0706109999999995</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.403000</v>
+        <v>967.40300000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.603600</v>
+        <v>-74.6036</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>29064.315011</v>
+        <v>29064.315010999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.073421</v>
+        <v>8.0734209999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.521000</v>
+        <v>974.52099999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.109700</v>
+        <v>-79.109700000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>29074.774181</v>
+        <v>29074.774181000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.076326</v>
+        <v>8.0763259999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.473000</v>
+        <v>982.47299999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.505100</v>
+        <v>-90.505099999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>29085.848854</v>
@@ -3957,392 +4373,392 @@
         <v>8.079402</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.191000</v>
+        <v>992.19100000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-107.962000</v>
+        <v>-107.962</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>29096.910136</v>
+        <v>29096.910135999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.082475</v>
+        <v>8.0824750000000005</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.454000</v>
+        <v>-123.45399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>29108.626600</v>
+        <v>29108.6266</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.085730</v>
+        <v>8.0857299999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.470000</v>
+        <v>1038.47</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.812000</v>
+        <v>-194.81200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>29119.500891</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.088750</v>
+        <v>8.0887499999999992</v>
       </c>
       <c r="BK15" s="1">
-        <v>1104.320000</v>
+        <v>1104.32</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.853000</v>
+        <v>-310.85300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>29129.492333</v>
+        <v>29129.492332999998</v>
       </c>
       <c r="BO15" s="1">
         <v>8.091526</v>
       </c>
       <c r="BP15" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-493.958000</v>
+        <v>-493.95800000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>29140.842783</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.094679</v>
+        <v>8.0946789999999993</v>
       </c>
       <c r="BU15" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="BV15" s="1">
-        <v>-694.772000</v>
+        <v>-694.77200000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>29151.967521</v>
+        <v>29151.967520999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.097769</v>
+        <v>8.0977689999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1467.430000</v>
+        <v>1467.43</v>
       </c>
       <c r="CA15" s="1">
-        <v>-909.382000</v>
+        <v>-909.38199999999995</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>29165.046558</v>
+        <v>29165.046557999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.101402</v>
+        <v>8.1014020000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1822.750000</v>
+        <v>1822.75</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1417.380000</v>
+        <v>-1417.38</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>28992.195747</v>
+        <v>28992.195747000002</v>
       </c>
       <c r="B16" s="1">
         <v>8.053388</v>
       </c>
       <c r="C16" s="1">
-        <v>901.357000</v>
+        <v>901.35699999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.742000</v>
+        <v>-202.74199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>29002.834901</v>
+        <v>29002.834900999998</v>
       </c>
       <c r="G16" s="1">
         <v>8.056343</v>
       </c>
       <c r="H16" s="1">
-        <v>919.245000</v>
+        <v>919.245</v>
       </c>
       <c r="I16" s="1">
-        <v>-170.963000</v>
+        <v>-170.96299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>29013.337718</v>
+        <v>29013.337717999999</v>
       </c>
       <c r="L16" s="1">
-        <v>8.059260</v>
+        <v>8.0592600000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>942.727000</v>
+        <v>942.72699999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.947000</v>
+        <v>-120.947</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>29023.891598</v>
+        <v>29023.891597999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.062192</v>
+        <v>8.0621919999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>949.389000</v>
+        <v>949.38900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.333000</v>
+        <v>-104.333</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>29034.154779</v>
       </c>
       <c r="V16" s="1">
-        <v>8.065043</v>
+        <v>8.0650429999999993</v>
       </c>
       <c r="W16" s="1">
-        <v>955.826000</v>
+        <v>955.82600000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.950500</v>
+        <v>-88.950500000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>29044.308414</v>
+        <v>29044.308413999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.067863</v>
+        <v>8.0678629999999991</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.781000</v>
+        <v>962.78099999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.012800</v>
+        <v>-77.012799999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>29054.469424</v>
+        <v>29054.469423999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.070686</v>
+        <v>8.0706860000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.428000</v>
+        <v>967.428</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.592700</v>
+        <v>-74.592699999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>29064.662210</v>
+        <v>29064.662209999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.073517</v>
+        <v>8.0735170000000007</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.522000</v>
+        <v>974.52200000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.113700</v>
+        <v>-79.113699999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>29075.132293</v>
+        <v>29075.132292999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.076426</v>
+        <v>8.0764259999999997</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.468000</v>
+        <v>982.46799999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.491700</v>
+        <v>-90.491699999999994</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>29086.212886</v>
+        <v>29086.212886000001</v>
       </c>
       <c r="AU16" s="1">
         <v>8.079504</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.222000</v>
+        <v>992.22199999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-107.966000</v>
+        <v>-107.96599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>29097.627815</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.082674</v>
+        <v>8.0826740000000008</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.475000</v>
+        <v>-123.47499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>29109.012028</v>
+        <v>29109.012028000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.085837</v>
+        <v>8.0858369999999997</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.810000</v>
+        <v>-194.81</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>29119.903145</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.088862</v>
+        <v>8.0888620000000007</v>
       </c>
       <c r="BK16" s="1">
-        <v>1104.330000</v>
+        <v>1104.33</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.865000</v>
+        <v>-310.86500000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>29129.884178</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.091634</v>
+        <v>8.0916340000000009</v>
       </c>
       <c r="BP16" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-493.998000</v>
+        <v>-493.99799999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>29141.577325</v>
+        <v>29141.577324999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.094883</v>
+        <v>8.0948829999999994</v>
       </c>
       <c r="BU16" s="1">
-        <v>1332.250000</v>
+        <v>1332.25</v>
       </c>
       <c r="BV16" s="1">
-        <v>-694.779000</v>
+        <v>-694.779</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>29152.738302</v>
+        <v>29152.738302000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.097983</v>
+        <v>8.0979829999999993</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1467.290000</v>
+        <v>1467.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-909.400000</v>
+        <v>-909.4</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>29165.274685</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.101465</v>
+        <v>8.1014649999999993</v>
       </c>
       <c r="CE16" s="1">
-        <v>1822.890000</v>
+        <v>1822.89</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1417.560000</v>
+        <v>-1417.56</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>28992.538946</v>
+        <v>28992.538946000001</v>
       </c>
       <c r="B17" s="1">
-        <v>8.053483</v>
+        <v>8.0534829999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>901.256000</v>
+        <v>901.25599999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.546000</v>
+        <v>-202.54599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>29003.177636</v>
@@ -4351,1176 +4767,1176 @@
         <v>8.056438</v>
       </c>
       <c r="H17" s="1">
-        <v>919.555000</v>
+        <v>919.55499999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.158000</v>
+        <v>-171.15799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>29013.764745</v>
       </c>
       <c r="L17" s="1">
-        <v>8.059379</v>
+        <v>8.0593789999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>942.700000</v>
+        <v>942.7</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.045000</v>
+        <v>-121.045</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>29024.332009</v>
+        <v>29024.332009000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.062314</v>
+        <v>8.0623140000000006</v>
       </c>
       <c r="R17" s="1">
-        <v>949.375000</v>
+        <v>949.375</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.335000</v>
+        <v>-104.33499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>29034.436012</v>
+        <v>29034.436011999998</v>
       </c>
       <c r="V17" s="1">
-        <v>8.065121</v>
+        <v>8.0651209999999995</v>
       </c>
       <c r="W17" s="1">
-        <v>955.868000</v>
+        <v>955.86800000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.940900</v>
+        <v>-88.940899999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>29044.661037</v>
+        <v>29044.661037000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.067961</v>
+        <v>8.0679610000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.808000</v>
+        <v>962.80799999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.996400</v>
+        <v>-76.996399999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>29054.813649</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.070782</v>
+        <v>8.0707819999999995</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.406000</v>
+        <v>967.40599999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.493500</v>
+        <v>-74.493499999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>29065.011897</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.073614</v>
+        <v>8.0736139999999992</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.503000</v>
+        <v>974.50300000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.100800</v>
+        <v>-79.100800000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>29075.859892</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.076628</v>
+        <v>8.0766279999999995</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.486000</v>
+        <v>982.48599999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.498200</v>
+        <v>-90.498199999999997</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>29086.942997</v>
+        <v>29086.942996999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.079706</v>
+        <v>8.0797059999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.191000</v>
+        <v>992.19100000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-107.954000</v>
+        <v>-107.95399999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>29097.984438</v>
+        <v>29097.984437999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.082773</v>
+        <v>8.0827729999999995</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.456000</v>
+        <v>-123.456</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>29109.374568</v>
+        <v>29109.374567999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.085937</v>
+        <v>8.0859369999999995</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.837000</v>
+        <v>-194.83699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>29120.278617</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.088966</v>
+        <v>8.0889659999999992</v>
       </c>
       <c r="BK17" s="1">
-        <v>1104.350000</v>
+        <v>1104.3499999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.848000</v>
+        <v>-310.84800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>29130.623675</v>
+        <v>29130.623674999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.091840</v>
+        <v>8.0918399999999995</v>
       </c>
       <c r="BP17" s="1">
-        <v>1211.490000</v>
+        <v>1211.49</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-493.972000</v>
+        <v>-493.97199999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>29141.709261</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.094919</v>
+        <v>8.0949190000000009</v>
       </c>
       <c r="BU17" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="BV17" s="1">
-        <v>-694.700000</v>
+        <v>-694.7</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>29152.860814</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.098017</v>
+        <v>8.0980170000000005</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1467.300000</v>
+        <v>1467.3</v>
       </c>
       <c r="CA17" s="1">
-        <v>-909.360000</v>
+        <v>-909.36</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>29165.796477</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.101610</v>
+        <v>8.1016100000000009</v>
       </c>
       <c r="CE17" s="1">
-        <v>1821.730000</v>
+        <v>1821.73</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1418.170000</v>
+        <v>-1418.17</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>28992.970500</v>
+        <v>28992.970499999999</v>
       </c>
       <c r="B18" s="1">
-        <v>8.053603</v>
+        <v>8.0536030000000007</v>
       </c>
       <c r="C18" s="1">
-        <v>901.340000</v>
+        <v>901.34</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.599000</v>
+        <v>-202.59899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>29003.598803</v>
+        <v>29003.598803000001</v>
       </c>
       <c r="G18" s="1">
-        <v>8.056555</v>
+        <v>8.0565549999999995</v>
       </c>
       <c r="H18" s="1">
-        <v>919.389000</v>
+        <v>919.38900000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.062000</v>
+        <v>-171.06200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>29014.044981</v>
+        <v>29014.044980999999</v>
       </c>
       <c r="L18" s="1">
-        <v>8.059457</v>
+        <v>8.0594570000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.714000</v>
+        <v>942.71400000000006</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.155000</v>
+        <v>-121.155</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>29024.583976</v>
+        <v>29024.583976000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.062384</v>
+        <v>8.0623839999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>949.395000</v>
+        <v>949.39499999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.343000</v>
+        <v>-104.343</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>29034.780730</v>
+        <v>29034.780729999999</v>
       </c>
       <c r="V18" s="1">
-        <v>8.065217</v>
+        <v>8.0652170000000005</v>
       </c>
       <c r="W18" s="1">
-        <v>955.862000</v>
+        <v>955.86199999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.948300</v>
+        <v>-88.948300000000003</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>29045.007246</v>
+        <v>29045.007246000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.068058</v>
+        <v>8.0680580000000006</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.846000</v>
+        <v>962.846</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.942100</v>
+        <v>-76.942099999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>29055.158367</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.070877</v>
+        <v>8.0708769999999994</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.420000</v>
+        <v>967.42</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.591800</v>
+        <v>-74.591800000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>29065.709977</v>
+        <v>29065.709976999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.073808</v>
+        <v>8.0738079999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.526000</v>
+        <v>974.52599999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.128900</v>
+        <v>-79.128900000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>29076.239827</v>
+        <v>29076.239827000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.076733</v>
+        <v>8.0767330000000008</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.472000</v>
+        <v>982.47199999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.497100</v>
+        <v>-90.497100000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>29087.333844</v>
+        <v>29087.333844000001</v>
       </c>
       <c r="AU18" s="1">
         <v>8.079815</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.189000</v>
+        <v>992.18899999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-107.974000</v>
+        <v>-107.974</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>29098.344534</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.082873</v>
+        <v>8.0828729999999993</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.469000</v>
+        <v>-123.46899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>29110.039380</v>
+        <v>29110.039379999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.086122</v>
+        <v>8.0861219999999996</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.833000</v>
+        <v>-194.833</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>29120.960120</v>
+        <v>29120.96012</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.089156</v>
+        <v>8.0891559999999991</v>
       </c>
       <c r="BK18" s="1">
-        <v>1104.360000</v>
+        <v>1104.3599999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.836000</v>
+        <v>-310.83600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>29130.736267</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.091871</v>
+        <v>8.0918709999999994</v>
       </c>
       <c r="BP18" s="1">
-        <v>1211.480000</v>
+        <v>1211.48</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-493.976000</v>
+        <v>-493.976</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>29142.120974</v>
+        <v>29142.120974000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.095034</v>
+        <v>8.0950340000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1332.280000</v>
+        <v>1332.28</v>
       </c>
       <c r="BV18" s="1">
-        <v>-694.756000</v>
+        <v>-694.75599999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>29153.289387</v>
+        <v>29153.289387000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.098136</v>
+        <v>8.0981360000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1467.330000</v>
+        <v>1467.33</v>
       </c>
       <c r="CA18" s="1">
-        <v>-909.451000</v>
+        <v>-909.45100000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>29166.316781</v>
+        <v>29166.316781000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.101755</v>
+        <v>8.1017550000000007</v>
       </c>
       <c r="CE18" s="1">
-        <v>1822.230000</v>
+        <v>1822.23</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1417.850000</v>
+        <v>-1417.85</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>28993.238801</v>
       </c>
       <c r="B19" s="1">
-        <v>8.053677</v>
+        <v>8.0536770000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>901.282000</v>
+        <v>901.28200000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.416000</v>
+        <v>-202.416</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>29003.879507</v>
+        <v>29003.879507000001</v>
       </c>
       <c r="G19" s="1">
-        <v>8.056633</v>
+        <v>8.0566329999999997</v>
       </c>
       <c r="H19" s="1">
-        <v>919.409000</v>
+        <v>919.40899999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.949000</v>
+        <v>-170.94900000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>29014.398133</v>
+        <v>29014.398132999999</v>
       </c>
       <c r="L19" s="1">
-        <v>8.059555</v>
+        <v>8.0595549999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>942.871000</v>
+        <v>942.87099999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.009000</v>
+        <v>-121.009</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>29024.935144</v>
+        <v>29024.935143999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.062482</v>
+        <v>8.0624819999999993</v>
       </c>
       <c r="R19" s="1">
-        <v>949.391000</v>
+        <v>949.39099999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.372000</v>
+        <v>-104.372</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>29035.121014</v>
       </c>
       <c r="V19" s="1">
-        <v>8.065311</v>
+        <v>8.0653109999999995</v>
       </c>
       <c r="W19" s="1">
-        <v>955.884000</v>
+        <v>955.88400000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.946600</v>
+        <v>-88.946600000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>29045.707595</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.068252</v>
+        <v>8.0682519999999993</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.744000</v>
+        <v>962.74400000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.910100</v>
+        <v>-76.9101</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>29055.844863</v>
+        <v>29055.844862999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.071068</v>
+        <v>8.0710680000000004</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.439000</v>
+        <v>967.43899999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.599200</v>
+        <v>-74.599199999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>29066.056005</v>
+        <v>29066.056004999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.073904</v>
+        <v>8.0739040000000006</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.506000</v>
+        <v>974.50599999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.125200</v>
+        <v>-79.125200000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>29076.599427</v>
+        <v>29076.599427000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.076833</v>
+        <v>8.0768330000000006</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.488000</v>
+        <v>982.48800000000006</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.489900</v>
+        <v>-90.489900000000006</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>29087.694932</v>
+        <v>29087.694931999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.079915</v>
+        <v>8.0799149999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.204000</v>
+        <v>992.20399999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-107.970000</v>
+        <v>-107.97</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>29099.014629</v>
+        <v>29099.014629000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.083060</v>
+        <v>8.0830599999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.474000</v>
+        <v>-123.474</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>29110.492054</v>
+        <v>29110.492053999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.086248</v>
+        <v>8.0862479999999994</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.831000</v>
+        <v>-194.83099999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>29121.070232</v>
+        <v>29121.070231999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.089186</v>
+        <v>8.0891859999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1104.360000</v>
+        <v>1104.3599999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.835000</v>
+        <v>-310.83499999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>29131.128603</v>
+        <v>29131.128603000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.091980</v>
+        <v>8.0919799999999995</v>
       </c>
       <c r="BP19" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-493.962000</v>
+        <v>-493.96199999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>29142.548987</v>
+        <v>29142.548986999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.095152</v>
+        <v>8.0951520000000006</v>
       </c>
       <c r="BU19" s="1">
-        <v>1332.270000</v>
+        <v>1332.27</v>
       </c>
       <c r="BV19" s="1">
-        <v>-694.815000</v>
+        <v>-694.81500000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>29153.705005</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.098251</v>
+        <v>8.0982509999999994</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1467.440000</v>
+        <v>1467.44</v>
       </c>
       <c r="CA19" s="1">
-        <v>-909.348000</v>
+        <v>-909.34799999999996</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>29166.866844</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.101907</v>
+        <v>8.1019070000000006</v>
       </c>
       <c r="CE19" s="1">
-        <v>1822.860000</v>
+        <v>1822.86</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1417.840000</v>
+        <v>-1417.84</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>28993.581537</v>
+        <v>28993.581536999998</v>
       </c>
       <c r="B20" s="1">
-        <v>8.053773</v>
+        <v>8.0537729999999996</v>
       </c>
       <c r="C20" s="1">
-        <v>901.397000</v>
+        <v>901.39700000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.586000</v>
+        <v>-202.58600000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>29004.222706</v>
       </c>
       <c r="G20" s="1">
-        <v>8.056729</v>
+        <v>8.0567290000000007</v>
       </c>
       <c r="H20" s="1">
-        <v>919.151000</v>
+        <v>919.15099999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.122000</v>
+        <v>-171.12200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>29014.741862</v>
+        <v>29014.741861999999</v>
       </c>
       <c r="L20" s="1">
-        <v>8.059651</v>
+        <v>8.0596510000000006</v>
       </c>
       <c r="M20" s="1">
-        <v>942.752000</v>
+        <v>942.75199999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.017000</v>
+        <v>-121.017</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>29025.630190</v>
+        <v>29025.63019</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.062675</v>
+        <v>8.0626750000000005</v>
       </c>
       <c r="R20" s="1">
-        <v>949.369000</v>
+        <v>949.36900000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.367000</v>
+        <v>-104.367</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>29035.807946</v>
+        <v>29035.807946000001</v>
       </c>
       <c r="V20" s="1">
-        <v>8.065502</v>
+        <v>8.0655020000000004</v>
       </c>
       <c r="W20" s="1">
-        <v>955.837000</v>
+        <v>955.83699999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.944600</v>
+        <v>-88.944599999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>29046.053835</v>
+        <v>29046.053834999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.068348</v>
+        <v>8.0683480000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.867000</v>
+        <v>962.86699999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.939800</v>
+        <v>-76.939800000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>29056.189055</v>
+        <v>29056.189054999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.071164</v>
+        <v>8.0711639999999996</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.441000</v>
+        <v>967.44100000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.591400</v>
+        <v>-74.591399999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>29066.406674</v>
+        <v>29066.406674000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.074002</v>
+        <v>8.0740020000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.525000</v>
+        <v>974.52499999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.133100</v>
+        <v>-79.133099999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>29077.269058</v>
+        <v>29077.269058000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.077019</v>
+        <v>8.0770189999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.471000</v>
+        <v>982.471</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.505800</v>
+        <v>-90.505799999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>29088.382387</v>
+        <v>29088.382387000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.080106</v>
+        <v>8.0801060000000007</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.207000</v>
+        <v>992.20699999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-107.976000</v>
+        <v>-107.976</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>29099.455076</v>
+        <v>29099.455075999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.083182</v>
+        <v>8.0831820000000008</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.468000</v>
+        <v>-123.468</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>29110.852149</v>
+        <v>29110.852148999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.086348</v>
+        <v>8.0863479999999992</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.802000</v>
+        <v>-194.80199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>29121.429368</v>
+        <v>29121.429368000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.089286</v>
+        <v>8.0892859999999995</v>
       </c>
       <c r="BK20" s="1">
-        <v>1104.360000</v>
+        <v>1104.3599999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.870000</v>
+        <v>-310.87</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>29131.552218</v>
+        <v>29131.552218000001</v>
       </c>
       <c r="BO20" s="1">
         <v>8.092098</v>
       </c>
       <c r="BP20" s="1">
-        <v>1211.490000</v>
+        <v>1211.49</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-493.931000</v>
+        <v>-493.93099999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>29142.968107</v>
+        <v>29142.968107000001</v>
       </c>
       <c r="BT20" s="1">
         <v>8.095269</v>
       </c>
       <c r="BU20" s="1">
-        <v>1332.290000</v>
+        <v>1332.29</v>
       </c>
       <c r="BV20" s="1">
-        <v>-694.802000</v>
+        <v>-694.80200000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>29154.162316</v>
+        <v>29154.162316000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.098378</v>
+        <v>8.0983780000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1467.420000</v>
+        <v>1467.42</v>
       </c>
       <c r="CA20" s="1">
-        <v>-909.423000</v>
+        <v>-909.423</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>29167.398059</v>
+        <v>29167.398058999999</v>
       </c>
       <c r="CD20" s="1">
         <v>8.102055</v>
       </c>
       <c r="CE20" s="1">
-        <v>1821.880000</v>
+        <v>1821.88</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1418.420000</v>
+        <v>-1418.42</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>28993.923280</v>
+        <v>28993.923279999999</v>
       </c>
       <c r="B21" s="1">
-        <v>8.053868</v>
+        <v>8.0538679999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>901.328000</v>
+        <v>901.32799999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.604000</v>
+        <v>-202.60400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>29004.568914</v>
+        <v>29004.568913999999</v>
       </c>
       <c r="G21" s="1">
-        <v>8.056825</v>
+        <v>8.0568249999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>919.277000</v>
+        <v>919.27700000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.300000</v>
+        <v>-171.3</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>29015.433780</v>
+        <v>29015.433779999999</v>
       </c>
       <c r="L21" s="1">
-        <v>8.059843</v>
+        <v>8.0598430000000008</v>
       </c>
       <c r="M21" s="1">
-        <v>942.893000</v>
+        <v>942.89300000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.141000</v>
+        <v>-121.14100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>29025.981734</v>
+        <v>29025.981734000001</v>
       </c>
       <c r="Q21" s="1">
         <v>8.062773</v>
       </c>
       <c r="R21" s="1">
-        <v>949.362000</v>
+        <v>949.36199999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.354000</v>
+        <v>-104.354</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>29036.152664</v>
+        <v>29036.152664000001</v>
       </c>
       <c r="V21" s="1">
-        <v>8.065598</v>
+        <v>8.0655979999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>955.845000</v>
+        <v>955.84500000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.862800</v>
+        <v>-88.862799999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>29046.404475</v>
+        <v>29046.404474999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.068446</v>
+        <v>8.0684459999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.956000</v>
+        <v>962.95600000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.943600</v>
+        <v>-76.943600000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>29056.535263</v>
+        <v>29056.535263000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.071260</v>
+        <v>8.0712600000000005</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.387000</v>
+        <v>967.38699999999994</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.624100</v>
+        <v>-74.624099999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>29067.068305</v>
+        <v>29067.068305000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.074186</v>
+        <v>8.0741859999999992</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.496000</v>
+        <v>974.49599999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.124700</v>
+        <v>-79.124700000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>29077.678723</v>
+        <v>29077.678723000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.077133</v>
+        <v>8.0771329999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.477000</v>
+        <v>982.47699999999998</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.505300</v>
+        <v>-90.505300000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>29088.827795</v>
+        <v>29088.827795000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.080230</v>
+        <v>8.0802300000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.199000</v>
+        <v>992.19899999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-107.983000</v>
+        <v>-107.983</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>29099.820134</v>
+        <v>29099.820134000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.083283</v>
+        <v>8.0832829999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.477000</v>
+        <v>-123.477</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>29111.216709</v>
@@ -5529,966 +5945,966 @@
         <v>8.086449</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.834000</v>
+        <v>-194.834</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>29121.802824</v>
+        <v>29121.802823999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.089390</v>
+        <v>8.0893899999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1104.330000</v>
+        <v>1104.33</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.823000</v>
+        <v>-310.82299999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>29131.982250</v>
+        <v>29131.982250000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.092217</v>
+        <v>8.0922169999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1211.480000</v>
+        <v>1211.48</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-493.975000</v>
+        <v>-493.97500000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>29143.377802</v>
+        <v>29143.377801999999</v>
       </c>
       <c r="BT21" s="1">
         <v>8.095383</v>
       </c>
       <c r="BU21" s="1">
-        <v>1332.330000</v>
+        <v>1332.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-694.793000</v>
+        <v>-694.79300000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>29154.608716</v>
+        <v>29154.608715999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.098502</v>
+        <v>8.0985019999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1467.340000</v>
+        <v>1467.34</v>
       </c>
       <c r="CA21" s="1">
-        <v>-909.377000</v>
+        <v>-909.37699999999995</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>29167.913402</v>
+        <v>29167.913401999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.102198</v>
+        <v>8.1021979999999996</v>
       </c>
       <c r="CE21" s="1">
-        <v>1822.550000</v>
+        <v>1822.55</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1419.460000</v>
+        <v>-1419.46</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>28994.606273</v>
+        <v>28994.606273000001</v>
       </c>
       <c r="B22" s="1">
-        <v>8.054057</v>
+        <v>8.0540570000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>901.156000</v>
+        <v>901.15599999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.525000</v>
+        <v>-202.52500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>29005.253889</v>
       </c>
       <c r="G22" s="1">
-        <v>8.057015</v>
+        <v>8.0570149999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>919.249000</v>
+        <v>919.24900000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.432000</v>
+        <v>-171.43199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>29015.781972</v>
+        <v>29015.781972000001</v>
       </c>
       <c r="L22" s="1">
         <v>8.059939</v>
       </c>
       <c r="M22" s="1">
-        <v>942.498000</v>
+        <v>942.49800000000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.004000</v>
+        <v>-121.004</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>29026.328407</v>
+        <v>29026.328407000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.062869</v>
+        <v>8.0628689999999992</v>
       </c>
       <c r="R22" s="1">
-        <v>949.373000</v>
+        <v>949.37300000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.338000</v>
+        <v>-104.33799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>29036.493943</v>
+        <v>29036.493943000001</v>
       </c>
       <c r="V22" s="1">
-        <v>8.065693</v>
+        <v>8.0656929999999996</v>
       </c>
       <c r="W22" s="1">
-        <v>955.813000</v>
+        <v>955.81299999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.874100</v>
+        <v>-88.874099999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>29047.060682</v>
+        <v>29047.060681999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.068628</v>
+        <v>8.0686280000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.749000</v>
+        <v>962.74900000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.964500</v>
+        <v>-76.964500000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>29057.294636</v>
+        <v>29057.294635999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.071471</v>
+        <v>8.0714710000000007</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.454000</v>
+        <v>967.45399999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.608700</v>
+        <v>-74.608699999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>29067.451215</v>
+        <v>29067.451215000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.074292</v>
+        <v>8.0742919999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.494000</v>
+        <v>974.49400000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.108800</v>
+        <v>-79.108800000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>29078.063617</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.077240</v>
+        <v>8.0772399999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.464000</v>
+        <v>982.46400000000006</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.498000</v>
+        <v>-90.498000000000005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>29089.187892</v>
+        <v>29089.187892000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.080330</v>
+        <v>8.08033</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.183000</v>
+        <v>992.18299999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-107.965000</v>
+        <v>-107.965</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>29100.172293</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.083381</v>
+        <v>8.0833809999999993</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.464000</v>
+        <v>-123.464</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>29111.640292</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.086567</v>
+        <v>8.0865670000000005</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.821000</v>
+        <v>-194.821</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>29122.239799</v>
+        <v>29122.239798999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.089511</v>
+        <v>8.0895109999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1104.340000</v>
+        <v>1104.3399999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.814000</v>
+        <v>-310.81400000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>29132.366617</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.092324</v>
+        <v>8.0923239999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1211.460000</v>
+        <v>1211.46</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-493.985000</v>
+        <v>-493.98500000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>29143.789514</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.095497</v>
+        <v>8.0954969999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="BV22" s="1">
-        <v>-694.823000</v>
+        <v>-694.82299999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>29155.032795</v>
+        <v>29155.032794999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.098620</v>
+        <v>8.0986200000000004</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1467.430000</v>
+        <v>1467.43</v>
       </c>
       <c r="CA22" s="1">
-        <v>-909.392000</v>
+        <v>-909.39200000000005</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>29168.430729</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.102342</v>
+        <v>8.1023420000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1823.570000</v>
+        <v>1823.57</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1418.530000</v>
+        <v>-1418.53</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>28994.949007</v>
+        <v>28994.949006999999</v>
       </c>
       <c r="B23" s="1">
-        <v>8.054153</v>
+        <v>8.0541529999999995</v>
       </c>
       <c r="C23" s="1">
-        <v>901.390000</v>
+        <v>901.39</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.538000</v>
+        <v>-202.53800000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>29005.601584</v>
       </c>
       <c r="G23" s="1">
-        <v>8.057112</v>
+        <v>8.0571120000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>919.624000</v>
+        <v>919.62400000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.287000</v>
+        <v>-171.28700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>29016.129171</v>
       </c>
       <c r="L23" s="1">
-        <v>8.060036</v>
+        <v>8.0600360000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>942.712000</v>
+        <v>942.71199999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.026000</v>
+        <v>-121.026</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>29026.984150</v>
+        <v>29026.98415</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.063051</v>
+        <v>8.0630509999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>949.406000</v>
+        <v>949.40599999999995</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.330000</v>
+        <v>-104.33</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>29037.158551</v>
       </c>
       <c r="V23" s="1">
-        <v>8.065877</v>
+        <v>8.0658770000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>955.858000</v>
+        <v>955.85799999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.939800</v>
+        <v>-88.939800000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>29047.449049</v>
+        <v>29047.449048999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.068736</v>
+        <v>8.0687359999999995</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.779000</v>
+        <v>962.779</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.972400</v>
+        <v>-76.972399999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>29057.581358</v>
+        <v>29057.581357999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.071550</v>
+        <v>8.0715500000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.424000</v>
+        <v>967.42399999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.598900</v>
+        <v>-74.5989</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>29067.800400</v>
+        <v>29067.8004</v>
       </c>
       <c r="AK23" s="1">
         <v>8.074389</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.511000</v>
+        <v>974.51099999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.116700</v>
+        <v>-79.116699999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>29078.423216</v>
+        <v>29078.423215999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.077340</v>
+        <v>8.0773399999999995</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.481000</v>
+        <v>982.48099999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.494500</v>
+        <v>-90.494500000000002</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>29089.555922</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.080432</v>
+        <v>8.0804320000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.178000</v>
+        <v>992.178</v>
       </c>
       <c r="AW23" s="1">
-        <v>-107.958000</v>
+        <v>-107.958</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>29100.600836</v>
+        <v>29100.600836000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.083500</v>
+        <v>8.0835000000000008</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.360000</v>
+        <v>1000.36</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.453000</v>
+        <v>-123.453</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>29111.936900</v>
+        <v>29111.936900000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.086649</v>
+        <v>8.0866489999999995</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.813000</v>
+        <v>-194.81299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>29122.565174</v>
+        <v>29122.565173999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>8.089601</v>
       </c>
       <c r="BK23" s="1">
-        <v>1104.330000</v>
+        <v>1104.33</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.827000</v>
+        <v>-310.827</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>29132.764409</v>
+        <v>29132.764408999999</v>
       </c>
       <c r="BO23" s="1">
         <v>8.092435</v>
       </c>
       <c r="BP23" s="1">
-        <v>1211.470000</v>
+        <v>1211.47</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-493.969000</v>
+        <v>-493.96899999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>29144.207122</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.095613</v>
+        <v>8.0956130000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="BV23" s="1">
-        <v>-694.797000</v>
+        <v>-694.79700000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>29155.454928</v>
+        <v>29155.454927999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.098737</v>
+        <v>8.0987369999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1467.430000</v>
+        <v>1467.43</v>
       </c>
       <c r="CA23" s="1">
-        <v>-909.471000</v>
+        <v>-909.471</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>29168.950701</v>
+        <v>29168.950701000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.102486</v>
+        <v>8.1024860000000007</v>
       </c>
       <c r="CE23" s="1">
-        <v>1823.490000</v>
+        <v>1823.49</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1418.780000</v>
+        <v>-1418.78</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>28995.289758</v>
+        <v>28995.289757999999</v>
       </c>
       <c r="B24" s="1">
-        <v>8.054247</v>
+        <v>8.0542470000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>901.160000</v>
+        <v>901.16</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.387000</v>
+        <v>-202.387</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>29005.946802</v>
+        <v>29005.946801999999</v>
       </c>
       <c r="G24" s="1">
         <v>8.057207</v>
       </c>
       <c r="H24" s="1">
-        <v>919.250000</v>
+        <v>919.25</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.006000</v>
+        <v>-171.006</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>29016.781911</v>
+        <v>29016.781910999998</v>
       </c>
       <c r="L24" s="1">
-        <v>8.060217</v>
+        <v>8.0602169999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>942.659000</v>
+        <v>942.65899999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.924000</v>
+        <v>-120.92400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>29027.372526</v>
+        <v>29027.372525999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.063159</v>
+        <v>8.0631590000000006</v>
       </c>
       <c r="R24" s="1">
-        <v>949.397000</v>
+        <v>949.39700000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.374000</v>
+        <v>-104.374</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>29037.524135</v>
       </c>
       <c r="V24" s="1">
-        <v>8.065979</v>
+        <v>8.0659790000000005</v>
       </c>
       <c r="W24" s="1">
-        <v>955.872000</v>
+        <v>955.87199999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.993200</v>
+        <v>-88.993200000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>29047.808153</v>
+        <v>29047.808153000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.068836</v>
+        <v>8.0688359999999992</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.704000</v>
+        <v>962.70399999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.985700</v>
+        <v>-76.985699999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>29057.919595</v>
+        <v>29057.919594999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.071644</v>
+        <v>8.0716439999999992</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.453000</v>
+        <v>967.45299999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.582400</v>
+        <v>-74.582400000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>29068.149087</v>
+        <v>29068.149087000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.074486</v>
+        <v>8.0744860000000003</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.508000</v>
+        <v>974.50800000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.105500</v>
+        <v>-79.105500000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>29078.846802</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.077457</v>
+        <v>8.0774570000000008</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.468000</v>
+        <v>982.46799999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.488100</v>
+        <v>-90.488100000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>29090.035057</v>
+        <v>29090.035057000001</v>
       </c>
       <c r="AU24" s="1">
         <v>8.080565</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.194000</v>
+        <v>992.19399999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-107.972000</v>
+        <v>-107.97199999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>29100.891026</v>
+        <v>29100.891026000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.083581</v>
+        <v>8.0835810000000006</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.458000</v>
+        <v>-123.458</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>29112.297526</v>
+        <v>29112.297525999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.086749</v>
+        <v>8.0867489999999993</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.800000</v>
+        <v>-194.8</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>29122.956022</v>
+        <v>29122.956021999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.089710</v>
+        <v>8.0897100000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1104.350000</v>
+        <v>1104.3499999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.824000</v>
+        <v>-310.82400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>29133.187994</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.092552</v>
+        <v>8.0925519999999995</v>
       </c>
       <c r="BP24" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-493.972000</v>
+        <v>-493.97199999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>29144.643593</v>
+        <v>29144.643593000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.095734</v>
+        <v>8.0957340000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="BV24" s="1">
-        <v>-694.807000</v>
+        <v>-694.80700000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>29156.290154</v>
+        <v>29156.290153999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.098969</v>
+        <v>8.0989690000000003</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1467.350000</v>
+        <v>1467.35</v>
       </c>
       <c r="CA24" s="1">
-        <v>-909.385000</v>
+        <v>-909.38499999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>29169.503080</v>
+        <v>29169.503079999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.102640</v>
+        <v>8.1026399999999992</v>
       </c>
       <c r="CE24" s="1">
-        <v>1822.680000</v>
+        <v>1822.68</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1419.850000</v>
+        <v>-1419.85</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>28995.949438</v>
       </c>
       <c r="B25" s="1">
-        <v>8.054430</v>
+        <v>8.05443</v>
       </c>
       <c r="C25" s="1">
-        <v>901.141000</v>
+        <v>901.14099999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.694000</v>
+        <v>-202.69399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>29006.607509</v>
+        <v>29006.607509000001</v>
       </c>
       <c r="G25" s="1">
-        <v>8.057391</v>
+        <v>8.0573910000000009</v>
       </c>
       <c r="H25" s="1">
-        <v>919.510000</v>
+        <v>919.51</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.155000</v>
+        <v>-171.155</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>29017.164123</v>
+        <v>29017.164122999999</v>
       </c>
       <c r="L25" s="1">
-        <v>8.060323</v>
+        <v>8.0603230000000003</v>
       </c>
       <c r="M25" s="1">
-        <v>942.761000</v>
+        <v>942.76099999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.793000</v>
+        <v>-120.79300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>29027.721700</v>
+        <v>29027.721699999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.063256</v>
+        <v>8.0632560000000009</v>
       </c>
       <c r="R25" s="1">
-        <v>949.391000</v>
+        <v>949.39099999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.359000</v>
+        <v>-104.35899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>29037.867366</v>
+        <v>29037.867365999999</v>
       </c>
       <c r="V25" s="1">
-        <v>8.066074</v>
+        <v>8.0660740000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>955.869000</v>
+        <v>955.86900000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.968600</v>
+        <v>-88.968599999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>29048.147913</v>
+        <v>29048.147913000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.068930</v>
+        <v>8.0689299999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.820000</v>
+        <v>962.82</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.974700</v>
+        <v>-76.974699999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>29058.339707</v>
+        <v>29058.339706999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.071761</v>
+        <v>8.0717610000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.453000</v>
+        <v>967.45299999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.608700</v>
+        <v>-74.608699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>29068.576309</v>
@@ -6497,407 +6913,408 @@
         <v>8.074605</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.527000</v>
+        <v>974.52700000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.123700</v>
+        <v>-79.123699999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>29079.144896</v>
+        <v>29079.144896000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.077540</v>
+        <v>8.0775400000000008</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.463000</v>
+        <v>982.46299999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.504200</v>
+        <v>-90.504199999999997</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>29090.289010</v>
+        <v>29090.28901</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.080636</v>
+        <v>8.0806360000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.218000</v>
+        <v>992.21799999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-107.960000</v>
+        <v>-107.96</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>29101.248115</v>
+        <v>29101.248114999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.083680</v>
+        <v>8.0836799999999993</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.456000</v>
+        <v>-123.456</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>29112.659571</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.086850</v>
+        <v>8.0868500000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.820000</v>
+        <v>-194.82</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>29123.520469</v>
+        <v>29123.520468999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.089867</v>
+        <v>8.0898669999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1104.350000</v>
+        <v>1104.3499999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.846000</v>
+        <v>-310.846</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>29134.003912</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.092779</v>
+        <v>8.0927790000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-493.962000</v>
+        <v>-493.96199999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>29145.075112</v>
+        <v>29145.075111999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.095854</v>
+        <v>8.0958539999999992</v>
       </c>
       <c r="BU25" s="1">
-        <v>1332.400000</v>
+        <v>1332.4</v>
       </c>
       <c r="BV25" s="1">
-        <v>-694.836000</v>
+        <v>-694.83600000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>29156.725145</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.099090</v>
+        <v>8.0990900000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1467.310000</v>
+        <v>1467.31</v>
       </c>
       <c r="CA25" s="1">
-        <v>-909.433000</v>
+        <v>-909.43299999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>29170.031816</v>
+        <v>29170.031815999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.102787</v>
+        <v>8.1027869999999993</v>
       </c>
       <c r="CE25" s="1">
-        <v>1823.530000</v>
+        <v>1823.53</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1418.460000</v>
+        <v>-1418.46</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>28996.314494</v>
+        <v>28996.314493999998</v>
       </c>
       <c r="B26" s="1">
         <v>8.054532</v>
       </c>
       <c r="C26" s="1">
-        <v>901.228000</v>
+        <v>901.22799999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.465000</v>
+        <v>-202.465</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>29006.983476</v>
+        <v>29006.983476000001</v>
       </c>
       <c r="G26" s="1">
-        <v>8.057495</v>
+        <v>8.0574949999999994</v>
       </c>
       <c r="H26" s="1">
-        <v>919.404000</v>
+        <v>919.404</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.930000</v>
+        <v>-170.93</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>29017.507057</v>
+        <v>29017.507056999999</v>
       </c>
       <c r="L26" s="1">
-        <v>8.060419</v>
+        <v>8.0604189999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>942.710000</v>
+        <v>942.71</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.972000</v>
+        <v>-120.97199999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>29028.071875</v>
+        <v>29028.071875000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.063353</v>
+        <v>8.0633529999999993</v>
       </c>
       <c r="R26" s="1">
-        <v>949.376000</v>
+        <v>949.37599999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.340000</v>
+        <v>-104.34</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>29038.211573</v>
       </c>
       <c r="V26" s="1">
-        <v>8.066170</v>
+        <v>8.0661699999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>955.883000</v>
+        <v>955.88300000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.929600</v>
+        <v>-88.929599999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>29048.571037</v>
+        <v>29048.571037000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.069048</v>
+        <v>8.0690480000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.784000</v>
+        <v>962.78399999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.045200</v>
+        <v>-77.045199999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>29058.617004</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.071838</v>
+        <v>8.0718379999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.447000</v>
+        <v>967.447</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.622500</v>
+        <v>-74.622500000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>29068.864317</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.074685</v>
+        <v>8.0746850000000006</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.537000</v>
+        <v>974.53700000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.116400</v>
+        <v>-79.116399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>29079.507007</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.077641</v>
+        <v>8.0776409999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.471000</v>
+        <v>982.471</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.505000</v>
+        <v>-90.504999999999995</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>29090.647616</v>
+        <v>29090.647615999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.080735</v>
+        <v>8.0807350000000007</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.207000</v>
+        <v>992.20699999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-107.963000</v>
+        <v>-107.96299999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>29101.608210</v>
+        <v>29101.608209999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.083780</v>
+        <v>8.0837800000000009</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.350000</v>
+        <v>1000.35</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.474000</v>
+        <v>-123.474</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>29113.379764</v>
+        <v>29113.379764000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.087050</v>
+        <v>8.0870499999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.520000</v>
+        <v>1038.52</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.824000</v>
+        <v>-194.82400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>29123.705479</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.089918</v>
+        <v>8.0899180000000008</v>
       </c>
       <c r="BK26" s="1">
-        <v>1104.350000</v>
+        <v>1104.3499999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.855000</v>
+        <v>-310.85500000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>29134.422071</v>
+        <v>29134.422071000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.092895</v>
+        <v>8.0928950000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1211.460000</v>
+        <v>1211.46</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-493.972000</v>
+        <v>-493.97199999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>29145.482823</v>
+        <v>29145.482822999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.095967</v>
+        <v>8.0959669999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1332.340000</v>
+        <v>1332.34</v>
       </c>
       <c r="BV26" s="1">
-        <v>-694.856000</v>
+        <v>-694.85599999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>29157.450801</v>
+        <v>29157.450800999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.099292</v>
+        <v>8.0992920000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1467.390000</v>
+        <v>1467.39</v>
       </c>
       <c r="CA26" s="1">
-        <v>-909.347000</v>
+        <v>-909.34699999999998</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>29170.863111</v>
+        <v>29170.863110999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.103018</v>
+        <v>8.1030180000000005</v>
       </c>
       <c r="CE26" s="1">
-        <v>1822.330000</v>
+        <v>1822.33</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1417.900000</v>
+        <v>-1417.9</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>